--- a/setting.xlsx
+++ b/setting.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600"/>
+    <workbookView windowWidth="28260" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,19 @@
     <t>BT_TX*FreqErr</t>
   </si>
   <si>
-    <t>Bt_TX*DEVMAVG</t>
+    <t>BT_TX*DEVMAVG</t>
   </si>
   <si>
-    <t>Bt_TX*DEVMPEAK</t>
+    <t>BT_TX*DEVMPEAK</t>
   </si>
   <si>
-    <t>Bt_TX*DEVM99</t>
+    <t>BT_TX*DEVM99</t>
   </si>
   <si>
-    <t>Bt_RX*BER</t>
+    <t>BT_RX*BER</t>
   </si>
   <si>
-    <t>Bt_RX*SEN</t>
+    <t>BT_RX*SEN</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
